--- a/dumps/Stocks/Carysil Ltd.xlsx
+++ b/dumps/Stocks/Carysil Ltd.xlsx
@@ -8,11 +8,11 @@
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'Trading History'!$A$4:$AD$14</definedName>
-    <definedName hidden="1" localSheetId="1" name="Z_7F4C893D_3ED3_4EF5_8959_4C6A7EA5F748_.wvu.FilterData">'Trading History'!$A$4:$AO$44</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_58594AB5_1873_4ADA_88DC_E6D9C40F4D35_.wvu.FilterData">'Trading History'!$A$4:$AO$44</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{7F4C893D-3ED3-4EF5-8959-4C6A7EA5F748}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{58594AB5-1873-4ADA-88DC-E6D9C40F4D35}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -833,8 +833,8 @@
         <v>2</v>
       </c>
       <c r="C2" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE($C$1, ""price"")"),927.0)</f>
-        <v>927</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE($C$1, ""price"")"),977.0)</f>
+        <v>977</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="2" t="s">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="C9" s="5">
         <f>IFERROR(Index!C10/(Index!C8*Index!$C$2), 0)</f>
-        <v>0.3792659105</v>
+        <v>0.4103167851</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="20" t="s">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="F9" s="5">
         <f>IFERROR(Index!F10/(Index!F8*Index!$C$2), 0)</f>
-        <v>0.3792659105</v>
+        <v>0.4103167851</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="21" t="s">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C10" s="23">
         <f>SUM('Trading History'!$L$4:$L1004)</f>
-        <v>7031.58998</v>
+        <v>8017.58998</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="20" t="s">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="F10" s="23">
         <f>SUM('Trading History'!$P$4:$P1004)</f>
-        <v>7031.58998</v>
+        <v>8017.58998</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="21" t="s">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C12" s="23">
         <f>SUM('Trading History'!$M$4:$M1004)</f>
-        <v>18440.15998</v>
+        <v>19426.15998</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="20" t="s">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="F12" s="23">
         <f>SUM('Trading History'!$Q$4:$Q1004)</f>
-        <v>18440.15998</v>
+        <v>19426.15998</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="21" t="s">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="C16" s="5">
         <f>IFERROR(Index!C17/(Index!C15*Index!$C$2), 0)</f>
-        <v>0.3792659105</v>
+        <v>0.4103167851</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="20" t="s">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="F16" s="5">
         <f>IFERROR(Index!F17/(Index!F15*Index!$C$2), 0)</f>
-        <v>0.3792659105</v>
+        <v>0.4103167851</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="21" t="s">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="C17" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A15))</f>
-        <v>7031.58998</v>
+        <v>8017.58998</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="20" t="s">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="F17" s="23">
         <f>SUMIFS('Trading History'!$P$4:$P1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A15))</f>
-        <v>7031.58998</v>
+        <v>8017.58998</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="21" t="s">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="C19" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A15))</f>
-        <v>18440.15998</v>
+        <v>19426.15998</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="20" t="s">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="F19" s="23">
         <f>SUMIFS('Trading History'!$Q$4:$Q1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A15))</f>
-        <v>18440.15998</v>
+        <v>19426.15998</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="21" t="s">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="C23" s="5">
         <f>IFERROR(Index!C24/(Index!C22*Index!$C$2), 0)</f>
-        <v>0.3792659105</v>
+        <v>0.4103167851</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="20" t="s">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="F23" s="5">
         <f>IFERROR(Index!F24/(Index!F22*Index!$C$2), 0)</f>
-        <v>0.3792659105</v>
+        <v>0.4103167851</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="21" t="s">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C24" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A22))</f>
-        <v>7031.58998</v>
+        <v>8017.58998</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="20" t="s">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="F24" s="23">
         <f>SUMIFS('Trading History'!$P$4:$P1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A22))</f>
-        <v>7031.58998</v>
+        <v>8017.58998</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="21" t="s">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="C26" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A22))</f>
-        <v>18440.15998</v>
+        <v>19426.15998</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="20" t="s">
@@ -1772,7 +1772,7 @@
       </c>
       <c r="F26" s="23">
         <f>SUMIFS('Trading History'!$Q$4:$Q1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A22))</f>
-        <v>18440.15998</v>
+        <v>19426.15998</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="21" t="s">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="C30" s="5">
         <f>IFERROR(Index!C31/(Index!C29*Index!$C$2), 0)</f>
-        <v>0.3792659105</v>
+        <v>0.4103167851</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="20" t="s">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="F30" s="5">
         <f>IFERROR(Index!F31/(Index!F29*Index!$C$2), 0)</f>
-        <v>0.3792659105</v>
+        <v>0.4103167851</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="21" t="s">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="C31" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A29))</f>
-        <v>7031.58998</v>
+        <v>8017.58998</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="20" t="s">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="F31" s="23">
         <f>SUMIFS('Trading History'!$P$4:$P1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A29))</f>
-        <v>7031.58998</v>
+        <v>8017.58998</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="21" t="s">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="C33" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A29))</f>
-        <v>18440.15998</v>
+        <v>19426.15998</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="20" t="s">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="F33" s="23">
         <f>SUMIFS('Trading History'!$Q$4:$Q1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A29))</f>
-        <v>18440.15998</v>
+        <v>19426.15998</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="21" t="s">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="C37" s="5">
         <f>IFERROR(Index!C38/(Index!C36*Index!$C$2), 0)</f>
-        <v>0.3792659105</v>
+        <v>0.4103167851</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="20" t="s">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="F37" s="5">
         <f>IFERROR(Index!F38/(Index!F36*Index!$C$2), 0)</f>
-        <v>0.3792659105</v>
+        <v>0.4103167851</v>
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="21" t="s">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="C38" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A36))</f>
-        <v>7031.58998</v>
+        <v>8017.58998</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="20" t="s">
@@ -2260,7 +2260,7 @@
       </c>
       <c r="F38" s="23">
         <f>SUMIFS('Trading History'!$P$4:$P1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A36))</f>
-        <v>7031.58998</v>
+        <v>8017.58998</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="21" t="s">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="C40" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A36))</f>
-        <v>18440.15998</v>
+        <v>19426.15998</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="20" t="s">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="F40" s="23">
         <f>SUMIFS('Trading History'!$Q$4:$Q1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A36))</f>
-        <v>18440.15998</v>
+        <v>19426.15998</v>
       </c>
       <c r="G40" s="8"/>
       <c r="H40" s="21" t="s">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="C44" s="5">
         <f>IFERROR(Index!C45/(Index!C43*Index!$C$2), 0)</f>
-        <v>0.3792659105</v>
+        <v>0.4103167851</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="20" t="s">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="F44" s="5">
         <f>IFERROR(Index!F45/(Index!F43*Index!$C$2), 0)</f>
-        <v>0.3792659105</v>
+        <v>0.4103167851</v>
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="21" t="s">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="C45" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A43))</f>
-        <v>7031.58998</v>
+        <v>8017.58998</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="20" t="s">
@@ -2551,7 +2551,7 @@
       </c>
       <c r="F45" s="23">
         <f>SUMIFS('Trading History'!$P$4:$P1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A43))</f>
-        <v>7031.58998</v>
+        <v>8017.58998</v>
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="21" t="s">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="C47" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A43))</f>
-        <v>18440.15998</v>
+        <v>19426.15998</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="20" t="s">
@@ -2645,7 +2645,7 @@
       </c>
       <c r="F47" s="23">
         <f>SUMIFS('Trading History'!$Q$4:$Q1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A43))</f>
-        <v>18440.15998</v>
+        <v>19426.15998</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="21" t="s">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="C51" s="5">
         <f>IFERROR(Index!C52/(Index!C50*Index!$C$2), 0)</f>
-        <v>0.3792659105</v>
+        <v>0.4103167851</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="20" t="s">
@@ -2795,7 +2795,7 @@
       </c>
       <c r="F51" s="5">
         <f>IFERROR(Index!F52/(Index!F50*Index!$C$2), 0)</f>
-        <v>0.3792659105</v>
+        <v>0.4103167851</v>
       </c>
       <c r="G51" s="8"/>
       <c r="H51" s="21" t="s">
@@ -2834,7 +2834,7 @@
       </c>
       <c r="C52" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A50))</f>
-        <v>7031.58998</v>
+        <v>8017.58998</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="20" t="s">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="F52" s="23">
         <f>SUMIFS('Trading History'!$P$4:$P1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A50))</f>
-        <v>7031.58998</v>
+        <v>8017.58998</v>
       </c>
       <c r="G52" s="8"/>
       <c r="H52" s="21" t="s">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="C54" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A50))</f>
-        <v>18440.15998</v>
+        <v>19426.15998</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="20" t="s">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="F54" s="23">
         <f>SUMIFS('Trading History'!$Q$4:$Q1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A50))</f>
-        <v>18440.15998</v>
+        <v>19426.15998</v>
       </c>
       <c r="G54" s="8"/>
       <c r="H54" s="21" t="s">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="C58" s="5">
         <f>IFERROR(Index!C59/(Index!C57*Index!$C$2), 0)</f>
-        <v>0.3792659105</v>
+        <v>0.4103167851</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="20" t="s">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="F58" s="5">
         <f>IFERROR(Index!F59/(Index!F57*Index!$C$2), 0)</f>
-        <v>0.3792659105</v>
+        <v>0.4103167851</v>
       </c>
       <c r="G58" s="8"/>
       <c r="H58" s="21" t="s">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="C59" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A57))</f>
-        <v>7031.58998</v>
+        <v>8017.58998</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="20" t="s">
@@ -3133,7 +3133,7 @@
       </c>
       <c r="F59" s="23">
         <f>SUMIFS('Trading History'!$P$4:$P1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A57))</f>
-        <v>7031.58998</v>
+        <v>8017.58998</v>
       </c>
       <c r="G59" s="8"/>
       <c r="H59" s="21" t="s">
@@ -3219,7 +3219,7 @@
       </c>
       <c r="C61" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A57))</f>
-        <v>18440.15998</v>
+        <v>19426.15998</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="20" t="s">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="F61" s="23">
         <f>SUMIFS('Trading History'!$Q$4:$Q1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A57))</f>
-        <v>18440.15998</v>
+        <v>19426.15998</v>
       </c>
       <c r="G61" s="8"/>
       <c r="H61" s="21" t="s">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="C65" s="5">
         <f>IFERROR(Index!C66/(Index!C64*Index!$C$2), 0)</f>
-        <v>0.3792659105</v>
+        <v>0.4103167851</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="20" t="s">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="F65" s="5">
         <f>IFERROR(Index!F66/(Index!F64*Index!$C$2), 0)</f>
-        <v>0.3792659105</v>
+        <v>0.4103167851</v>
       </c>
       <c r="G65" s="8"/>
       <c r="H65" s="21" t="s">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="C66" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A64))</f>
-        <v>7031.58998</v>
+        <v>8017.58998</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="20" t="s">
@@ -3424,7 +3424,7 @@
       </c>
       <c r="F66" s="23">
         <f>SUMIFS('Trading History'!$P$4:$P1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A64))</f>
-        <v>7031.58998</v>
+        <v>8017.58998</v>
       </c>
       <c r="G66" s="8"/>
       <c r="H66" s="21" t="s">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="C68" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A64))</f>
-        <v>18440.15998</v>
+        <v>19426.15998</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="20" t="s">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="F68" s="23">
         <f>SUMIFS('Trading History'!$Q$4:$Q1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A64))</f>
-        <v>18440.15998</v>
+        <v>19426.15998</v>
       </c>
       <c r="G68" s="8"/>
       <c r="H68" s="21" t="s">
@@ -3660,7 +3660,7 @@
       </c>
       <c r="C72" s="5">
         <f>IFERROR(Index!C73/(Index!C71*Index!$C$2), 0)</f>
-        <v>0.3792659105</v>
+        <v>0.4103167851</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="20" t="s">
@@ -3668,7 +3668,7 @@
       </c>
       <c r="F72" s="5">
         <f>IFERROR(Index!F73/(Index!F71*Index!$C$2), 0)</f>
-        <v>0.3792659105</v>
+        <v>0.4103167851</v>
       </c>
       <c r="G72" s="8"/>
       <c r="H72" s="21" t="s">
@@ -3707,7 +3707,7 @@
       </c>
       <c r="C73" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A71))</f>
-        <v>7031.58998</v>
+        <v>8017.58998</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="20" t="s">
@@ -3715,7 +3715,7 @@
       </c>
       <c r="F73" s="23">
         <f>SUMIFS('Trading History'!$P$4:$P1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A71))</f>
-        <v>7031.58998</v>
+        <v>8017.58998</v>
       </c>
       <c r="G73" s="8"/>
       <c r="H73" s="21" t="s">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="C75" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A71))</f>
-        <v>18440.15998</v>
+        <v>19426.15998</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="20" t="s">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="F75" s="23">
         <f>SUMIFS('Trading History'!$Q$4:$Q1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A71))</f>
-        <v>18440.15998</v>
+        <v>19426.15998</v>
       </c>
       <c r="G75" s="8"/>
       <c r="H75" s="21" t="s">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="C79" s="5">
         <f>IFERROR(Index!C80/(Index!C78*Index!$C$2), 0)</f>
-        <v>0.3792659105</v>
+        <v>0.4103167851</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="20" t="s">
@@ -3959,7 +3959,7 @@
       </c>
       <c r="F79" s="5">
         <f>IFERROR(Index!F80/(Index!F78*Index!$C$2), 0)</f>
-        <v>0.3792659105</v>
+        <v>0.4103167851</v>
       </c>
       <c r="G79" s="8"/>
       <c r="H79" s="21" t="s">
@@ -3998,7 +3998,7 @@
       </c>
       <c r="C80" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A78))</f>
-        <v>7031.58998</v>
+        <v>8017.58998</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="20" t="s">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="F80" s="23">
         <f>SUMIFS('Trading History'!$P$4:$P1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A78))</f>
-        <v>7031.58998</v>
+        <v>8017.58998</v>
       </c>
       <c r="G80" s="8"/>
       <c r="H80" s="21" t="s">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="C82" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A78))</f>
-        <v>18440.15998</v>
+        <v>19426.15998</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="20" t="s">
@@ -4100,7 +4100,7 @@
       </c>
       <c r="F82" s="23">
         <f>SUMIFS('Trading History'!$Q$4:$Q1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A78))</f>
-        <v>18440.15998</v>
+        <v>19426.15998</v>
       </c>
       <c r="G82" s="8"/>
       <c r="H82" s="21" t="s">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="C86" s="5">
         <f>IFERROR(Index!C87/(Index!C85*Index!$C$2), 0)</f>
-        <v>0.3792659105</v>
+        <v>0.4103167851</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="20" t="s">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="F86" s="5">
         <f>IFERROR(Index!F87/(Index!F85*Index!$C$2), 0)</f>
-        <v>0.3792659105</v>
+        <v>0.4103167851</v>
       </c>
       <c r="G86" s="8"/>
       <c r="H86" s="21" t="s">
@@ -4289,7 +4289,7 @@
       </c>
       <c r="C87" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A85))</f>
-        <v>7031.58998</v>
+        <v>8017.58998</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="20" t="s">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="F87" s="23">
         <f>SUMIFS('Trading History'!$P$4:$P1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A85))</f>
-        <v>7031.58998</v>
+        <v>8017.58998</v>
       </c>
       <c r="G87" s="8"/>
       <c r="H87" s="21" t="s">
@@ -4383,7 +4383,7 @@
       </c>
       <c r="C89" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A85))</f>
-        <v>18440.15998</v>
+        <v>19426.15998</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="20" t="s">
@@ -4391,7 +4391,7 @@
       </c>
       <c r="F89" s="23">
         <f>SUMIFS('Trading History'!$Q$4:$Q1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A85))</f>
-        <v>18440.15998</v>
+        <v>19426.15998</v>
       </c>
       <c r="G89" s="8"/>
       <c r="H89" s="21" t="s">
@@ -29452,19 +29452,19 @@
       </c>
       <c r="J5" s="62">
         <f>Index!$C$2</f>
-        <v>927</v>
+        <v>977</v>
       </c>
       <c r="K5" s="63">
         <f t="shared" ref="K5:K14" si="2">IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v>0.6119562029</v>
+        <v>0.6977749333</v>
       </c>
       <c r="L5" s="64">
         <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v>1054.64532</v>
+        <v>1202.54532</v>
       </c>
       <c r="M5" s="64">
         <f t="shared" ref="M5:M14" si="3">IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v>2766.02532</v>
+        <v>2913.92532</v>
       </c>
       <c r="N5" s="65">
         <f t="shared" ref="N5:N14" si="4">IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
@@ -29472,15 +29472,15 @@
       </c>
       <c r="O5" s="63">
         <f t="shared" ref="O5:O14" si="5">IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v>0.6119562029</v>
+        <v>0.6977749333</v>
       </c>
       <c r="P5" s="64">
         <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v>1054.64532</v>
+        <v>1202.54532</v>
       </c>
       <c r="Q5" s="64">
         <f t="shared" ref="Q5:Q14" si="6">IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v>2766.02532</v>
+        <v>2913.92532</v>
       </c>
       <c r="R5" s="64">
         <f t="shared" ref="R5:R14" si="7">IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
@@ -29546,19 +29546,19 @@
       </c>
       <c r="J6" s="62">
         <f>Index!$C$2</f>
-        <v>927</v>
+        <v>977</v>
       </c>
       <c r="K6" s="63">
         <f t="shared" si="2"/>
-        <v>0.6122800084</v>
+        <v>0.6981176655</v>
       </c>
       <c r="L6" s="64">
         <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v>351.6569</v>
+        <v>400.9569</v>
       </c>
       <c r="M6" s="64">
         <f t="shared" si="3"/>
-        <v>922.0069</v>
+        <v>971.3069</v>
       </c>
       <c r="N6" s="65">
         <f t="shared" si="4"/>
@@ -29566,15 +29566,15 @@
       </c>
       <c r="O6" s="63">
         <f t="shared" si="5"/>
-        <v>0.6122800084</v>
+        <v>0.6981176655</v>
       </c>
       <c r="P6" s="64">
         <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v>351.6569</v>
+        <v>400.9569</v>
       </c>
       <c r="Q6" s="64">
         <f t="shared" si="6"/>
-        <v>922.0069</v>
+        <v>971.3069</v>
       </c>
       <c r="R6" s="64">
         <f t="shared" si="7"/>
@@ -29640,19 +29640,19 @@
       </c>
       <c r="J7" s="62">
         <f>Index!$C$2</f>
-        <v>927</v>
+        <v>977</v>
       </c>
       <c r="K7" s="63">
         <f t="shared" si="2"/>
-        <v>0.6118135835</v>
+        <v>0.6976243473</v>
       </c>
       <c r="L7" s="64">
         <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v>702.99828</v>
+        <v>801.59828</v>
       </c>
       <c r="M7" s="64">
         <f t="shared" si="3"/>
-        <v>1844.01828</v>
+        <v>1942.61828</v>
       </c>
       <c r="N7" s="65">
         <f t="shared" si="4"/>
@@ -29660,15 +29660,15 @@
       </c>
       <c r="O7" s="63">
         <f t="shared" si="5"/>
-        <v>0.6118135835</v>
+        <v>0.6976243473</v>
       </c>
       <c r="P7" s="64">
         <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v>702.99828</v>
+        <v>801.59828</v>
       </c>
       <c r="Q7" s="64">
         <f t="shared" si="6"/>
-        <v>1844.01828</v>
+        <v>1942.61828</v>
       </c>
       <c r="R7" s="64">
         <f t="shared" si="7"/>
@@ -29734,19 +29734,19 @@
       </c>
       <c r="J8" s="62">
         <f>Index!$C$2</f>
-        <v>927</v>
+        <v>977</v>
       </c>
       <c r="K8" s="63">
         <f t="shared" si="2"/>
-        <v>0.6124042319</v>
+        <v>0.6982472697</v>
       </c>
       <c r="L8" s="64">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
-        <v>1758.531</v>
+        <v>2005.031</v>
       </c>
       <c r="M8" s="64">
         <f t="shared" si="3"/>
-        <v>4610.031</v>
+        <v>4856.531</v>
       </c>
       <c r="N8" s="65">
         <f t="shared" si="4"/>
@@ -29754,15 +29754,15 @@
       </c>
       <c r="O8" s="63">
         <f t="shared" si="5"/>
-        <v>0.6124042319</v>
+        <v>0.6982472697</v>
       </c>
       <c r="P8" s="64">
         <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
-        <v>1758.531</v>
+        <v>2005.031</v>
       </c>
       <c r="Q8" s="64">
         <f t="shared" si="6"/>
-        <v>4610.031</v>
+        <v>4856.531</v>
       </c>
       <c r="R8" s="64">
         <f t="shared" si="7"/>
@@ -29828,19 +29828,19 @@
       </c>
       <c r="J9" s="62">
         <f>Index!$C$2</f>
-        <v>927</v>
+        <v>977</v>
       </c>
       <c r="K9" s="63">
         <f t="shared" si="2"/>
-        <v>0.6125861763</v>
+        <v>0.6984402765</v>
       </c>
       <c r="L9" s="64">
         <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
-        <v>351.76536</v>
+        <v>401.06536</v>
       </c>
       <c r="M9" s="64">
         <f t="shared" si="3"/>
-        <v>922.00536</v>
+        <v>971.30536</v>
       </c>
       <c r="N9" s="65">
         <f t="shared" si="4"/>
@@ -29848,15 +29848,15 @@
       </c>
       <c r="O9" s="63">
         <f t="shared" si="5"/>
-        <v>0.6125861763</v>
+        <v>0.6984402765</v>
       </c>
       <c r="P9" s="64">
         <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
-        <v>351.76536</v>
+        <v>401.06536</v>
       </c>
       <c r="Q9" s="64">
         <f t="shared" si="6"/>
-        <v>922.00536</v>
+        <v>971.30536</v>
       </c>
       <c r="R9" s="64">
         <f t="shared" si="7"/>
@@ -29922,19 +29922,19 @@
       </c>
       <c r="J10" s="62">
         <f>Index!$C$2</f>
-        <v>927</v>
+        <v>977</v>
       </c>
       <c r="K10" s="63">
         <f t="shared" si="2"/>
-        <v>0.6118135835</v>
+        <v>0.6976243473</v>
       </c>
       <c r="L10" s="64">
         <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
-        <v>702.99828</v>
+        <v>801.59828</v>
       </c>
       <c r="M10" s="64">
         <f t="shared" si="3"/>
-        <v>1844.01828</v>
+        <v>1942.61828</v>
       </c>
       <c r="N10" s="65">
         <f t="shared" si="4"/>
@@ -29942,15 +29942,15 @@
       </c>
       <c r="O10" s="63">
         <f t="shared" si="5"/>
-        <v>0.6118135835</v>
+        <v>0.6976243473</v>
       </c>
       <c r="P10" s="64">
         <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
-        <v>702.99828</v>
+        <v>801.59828</v>
       </c>
       <c r="Q10" s="64">
         <f t="shared" si="6"/>
-        <v>1844.01828</v>
+        <v>1942.61828</v>
       </c>
       <c r="R10" s="64">
         <f t="shared" si="7"/>
@@ -30016,19 +30016,19 @@
       </c>
       <c r="J11" s="62">
         <f>Index!$C$2</f>
-        <v>927</v>
+        <v>977</v>
       </c>
       <c r="K11" s="63">
         <f t="shared" si="2"/>
-        <v>0.6118135835</v>
+        <v>0.6976243473</v>
       </c>
       <c r="L11" s="64">
         <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
-        <v>351.49914</v>
+        <v>400.79914</v>
       </c>
       <c r="M11" s="64">
         <f t="shared" si="3"/>
-        <v>922.00914</v>
+        <v>971.30914</v>
       </c>
       <c r="N11" s="65">
         <f t="shared" si="4"/>
@@ -30036,15 +30036,15 @@
       </c>
       <c r="O11" s="63">
         <f t="shared" si="5"/>
-        <v>0.6118135835</v>
+        <v>0.6976243473</v>
       </c>
       <c r="P11" s="64">
         <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
-        <v>351.49914</v>
+        <v>400.79914</v>
       </c>
       <c r="Q11" s="64">
         <f t="shared" si="6"/>
-        <v>922.00914</v>
+        <v>971.30914</v>
       </c>
       <c r="R11" s="64">
         <f t="shared" si="7"/>
@@ -30110,19 +30110,19 @@
       </c>
       <c r="J12" s="62">
         <f>Index!$C$2</f>
-        <v>927</v>
+        <v>977</v>
       </c>
       <c r="K12" s="63">
         <f t="shared" si="2"/>
-        <v>0.6118135835</v>
+        <v>0.6976243473</v>
       </c>
       <c r="L12" s="64">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
-        <v>702.99828</v>
+        <v>801.59828</v>
       </c>
       <c r="M12" s="64">
         <f t="shared" si="3"/>
-        <v>1844.01828</v>
+        <v>1942.61828</v>
       </c>
       <c r="N12" s="65">
         <f t="shared" si="4"/>
@@ -30130,15 +30130,15 @@
       </c>
       <c r="O12" s="63">
         <f t="shared" si="5"/>
-        <v>0.6118135835</v>
+        <v>0.6976243473</v>
       </c>
       <c r="P12" s="64">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
-        <v>702.99828</v>
+        <v>801.59828</v>
       </c>
       <c r="Q12" s="64">
         <f t="shared" si="6"/>
-        <v>1844.01828</v>
+        <v>1942.61828</v>
       </c>
       <c r="R12" s="64">
         <f t="shared" si="7"/>
@@ -30204,19 +30204,19 @@
       </c>
       <c r="J13" s="62">
         <f>Index!$C$2</f>
-        <v>927</v>
+        <v>977</v>
       </c>
       <c r="K13" s="63">
         <f t="shared" si="2"/>
-        <v>0.6118135835</v>
+        <v>0.6976243473</v>
       </c>
       <c r="L13" s="64">
         <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
-        <v>702.99828</v>
+        <v>801.59828</v>
       </c>
       <c r="M13" s="64">
         <f t="shared" si="3"/>
-        <v>1844.01828</v>
+        <v>1942.61828</v>
       </c>
       <c r="N13" s="65">
         <f t="shared" si="4"/>
@@ -30224,15 +30224,15 @@
       </c>
       <c r="O13" s="63">
         <f t="shared" si="5"/>
-        <v>0.6118135835</v>
+        <v>0.6976243473</v>
       </c>
       <c r="P13" s="64">
         <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
-        <v>702.99828</v>
+        <v>801.59828</v>
       </c>
       <c r="Q13" s="64">
         <f t="shared" si="6"/>
-        <v>1844.01828</v>
+        <v>1942.61828</v>
       </c>
       <c r="R13" s="64">
         <f t="shared" si="7"/>
@@ -30298,19 +30298,19 @@
       </c>
       <c r="J14" s="62">
         <f>Index!$C$2</f>
-        <v>927</v>
+        <v>977</v>
       </c>
       <c r="K14" s="63">
         <f t="shared" si="2"/>
-        <v>0.6118135835</v>
+        <v>0.6976243473</v>
       </c>
       <c r="L14" s="64">
         <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
-        <v>351.49914</v>
+        <v>400.79914</v>
       </c>
       <c r="M14" s="64">
         <f t="shared" si="3"/>
-        <v>922.00914</v>
+        <v>971.30914</v>
       </c>
       <c r="N14" s="65">
         <f t="shared" si="4"/>
@@ -30318,15 +30318,15 @@
       </c>
       <c r="O14" s="63">
         <f t="shared" si="5"/>
-        <v>0.6118135835</v>
+        <v>0.6976243473</v>
       </c>
       <c r="P14" s="64">
         <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
-        <v>351.49914</v>
+        <v>400.79914</v>
       </c>
       <c r="Q14" s="64">
         <f t="shared" si="6"/>
-        <v>922.00914</v>
+        <v>971.30914</v>
       </c>
       <c r="R14" s="64">
         <f t="shared" si="7"/>
@@ -45597,7 +45597,7 @@
   </sheetData>
   <autoFilter ref="$A$4:$AD$14"/>
   <customSheetViews>
-    <customSheetView guid="{7F4C893D-3ED3-4EF5-8959-4C6A7EA5F748}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{58594AB5-1873-4ADA-88DC-E6D9C40F4D35}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$4:$AO$44"/>
     </customSheetView>
   </customSheetViews>
